--- a/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t252.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t252.xlsx
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.0626</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6756</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.1515</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -529,22 +529,22 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.128</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.1281</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -587,16 +587,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.1515</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.128</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.1281</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1932</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -657,19 +657,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0626</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1932</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -692,19 +692,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6756</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -845,28 +845,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.0487</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0086</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5525</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -889,22 +889,22 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.1515</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -924,22 +924,22 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.128</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -959,22 +959,22 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.1281</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -982,16 +982,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.1515</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.128</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.1281</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1557</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0318</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1052,19 +1052,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0487</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1557</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0086</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0318</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1122,19 +1122,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5525</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1160,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0279</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0165</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0558</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0033</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1360,16 +1360,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0165</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0557</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0033</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1395,16 +1395,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0117</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0406</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4806</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1450,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0165</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0165</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0117</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0279</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0558</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0557</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0406</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1520,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0033</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0033</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.4806</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.0007</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J11">
-        <v>0.0007</v>
+        <v>0.0041</v>
       </c>
       <c r="K11">
         <v>1</v>

--- a/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t252.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t252.xlsx
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.0901</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.0871</v>
       </c>
       <c r="F3">
-        <v>0.1515</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.0901</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.128</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0005999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.0871</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1281</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0005999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1515</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.128</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.1281</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -765,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0008</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.0005999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.0005999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -883,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.0901</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.0871</v>
       </c>
       <c r="F3">
-        <v>0.1515</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.0901</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.128</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0005999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.0871</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1281</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0005999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1515</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.128</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.1281</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0008</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.0005999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.0005999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.6785</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.6785</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.0039</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.0038</v>
       </c>
       <c r="F11">
-        <v>0.4806</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1673,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.7059</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.6871</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.424</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.7059</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.6871</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.424</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0.0002</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0.0002</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.0041</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0002</v>
+        <v>0.0346</v>
       </c>
       <c r="I11">
-        <v>0.0002</v>
+        <v>0.0064</v>
       </c>
       <c r="J11">
-        <v>0.0041</v>
+        <v>0.0177</v>
       </c>
       <c r="K11">
         <v>1</v>

--- a/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t252.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t252.xlsx
@@ -10,14 +10,15 @@
     <sheet name="annualised_return" sheetId="1" r:id="rId1"/>
     <sheet name="mean_period_return" sheetId="2" r:id="rId2"/>
     <sheet name="sharpe_annualized" sheetId="3" r:id="rId3"/>
-    <sheet name="VaR" sheetId="4" r:id="rId4"/>
+    <sheet name="sharpe_period" sheetId="4" r:id="rId4"/>
+    <sheet name="VaR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
   <si>
     <t>minvar_ports_maxsharpe</t>
   </si>
@@ -453,16 +454,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -488,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0901</v>
+        <v>0.4174</v>
       </c>
       <c r="E3">
-        <v>0.0871</v>
+        <v>0.4443</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.0241</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -509,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -517,10 +518,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="C4">
-        <v>0.0901</v>
+        <v>0.4174</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -529,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -544,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -552,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="C5">
-        <v>0.0871</v>
+        <v>0.4443</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -564,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -579,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -590,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.0241</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -614,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -622,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -640,13 +641,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -672,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -681,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.4879</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -707,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -716,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.0941</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -742,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.4879</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.0941</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -786,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0268</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -848,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -883,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0901</v>
+        <v>0.4174</v>
       </c>
       <c r="E3">
-        <v>0.0871</v>
+        <v>0.4443</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.0241</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -904,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -912,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="C4">
-        <v>0.0901</v>
+        <v>0.4174</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -924,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -939,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -947,10 +948,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="C5">
-        <v>0.0871</v>
+        <v>0.4443</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -959,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -974,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -985,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.0241</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1009,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1017,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1035,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1067,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1076,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.4879</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1102,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1111,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.0941</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1137,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.4879</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.0941</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1160,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1181,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0268</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1240,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9198</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1249,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5508</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1272,16 +1273,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.9198</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.0009</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1290,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1310,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.0009</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1319,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1334,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1345,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1354,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1369,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1377,16 +1378,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1395,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2947</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1436,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1447,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.5508</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1459,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1471,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.7645999999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1482,10 +1483,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1494,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.2947</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1506,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.0459</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1532,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.7645999999999999</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.0459</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1555,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6785</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0038</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1635,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9198</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1644,16 +1645,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5508</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1667,28 +1668,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.9198</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7059</v>
+        <v>0.0009</v>
       </c>
       <c r="E3">
-        <v>0.6871</v>
+        <v>0.001</v>
       </c>
       <c r="F3">
-        <v>0.424</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1705,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.7059</v>
+        <v>0.0009</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1714,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1740,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.6871</v>
+        <v>0.001</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1749,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1772,16 +1773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.424</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1790,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2947</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1831,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1842,10 +1843,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.5508</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1854,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1866,10 +1867,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.7645999999999999</v>
       </c>
       <c r="K8">
-        <v>0.0346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1877,10 +1878,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1889,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.2947</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1901,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.0459</v>
       </c>
       <c r="K9">
-        <v>0.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1927,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.7645999999999999</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.0459</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.0177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1962,16 +1963,411 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.0346</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0064</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0177</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.0003</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.4623</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.4787</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.0003</v>
+      </c>
+      <c r="D6">
+        <v>0.4623</v>
+      </c>
+      <c r="E6">
+        <v>0.4787</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.0954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.0148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.1094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.0954</v>
+      </c>
+      <c r="I11">
+        <v>0.0148</v>
+      </c>
+      <c r="J11">
+        <v>0.1094</v>
       </c>
       <c r="K11">
         <v>1</v>
